--- a/dasc2103project_DataDictionary.xlsx
+++ b/dasc2103project_DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobhaarala/Dropbox/My Mac (Jacob’s MacBook Air)/Downloads/Data-Structures&amp;Algorithms/dasc2103project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B6A0CA-7846-8A4B-A6AF-3EF8140AE06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE0B3C-7A03-474E-9C41-0F7BEC881514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17200" windowHeight="16460" xr2:uid="{94DDB44B-70C4-0A46-A739-5D6D65E68943}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15320" windowHeight="16460" xr2:uid="{94DDB44B-70C4-0A46-A739-5D6D65E68943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>Header</t>
   </si>
@@ -179,16 +179,127 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>Rank by median earnings</t>
+  </si>
+  <si>
+    <t>Major code, FO1DP in ACS PUMS</t>
+  </si>
+  <si>
+    <t>Major description</t>
+  </si>
+  <si>
+    <t>Category of major from Carnevale et al</t>
+  </si>
+  <si>
+    <t>Total number of people with major</t>
+  </si>
+  <si>
+    <t>Male graduates</t>
+  </si>
+  <si>
+    <t>Female graduates</t>
+  </si>
+  <si>
+    <t>Women as share of total</t>
+  </si>
+  <si>
+    <t>Sample size (unweighted) of full-time, year-round ONLY (used for earnings)</t>
+  </si>
+  <si>
+    <t>Number employed</t>
+  </si>
+  <si>
+    <t>Employed 35 hours or more</t>
+  </si>
+  <si>
+    <t>Employed less than 35 hours</t>
+  </si>
+  <si>
+    <t>Employed at least 50 weeks, and for at least 35 hours</t>
+  </si>
+  <si>
+    <t>Number unemployed</t>
+  </si>
+  <si>
+    <t>Unemployed / (Unemployed + Employed)</t>
+  </si>
+  <si>
+    <t>Median earnings of full-time, year-round workers</t>
+  </si>
+  <si>
+    <t>25th percentile of earnings</t>
+  </si>
+  <si>
+    <t>75th percentile of earnings</t>
+  </si>
+  <si>
+    <t>Number with jobs requiring a college degree</t>
+  </si>
+  <si>
+    <t>Number with jobs not requiring a college degree</t>
+  </si>
+  <si>
+    <t>Number in low-wage service jobs</t>
+  </si>
+  <si>
+    <t>Total number of people in graduate programs with major</t>
+  </si>
+  <si>
+    <t>Number of those with graduate degree employed</t>
+  </si>
+  <si>
+    <t>Those with a graduate degree employed at least 50 weeks, and for at least 35 hours</t>
+  </si>
+  <si>
+    <t>Number with a graduate degree that're unemployed</t>
+  </si>
+  <si>
+    <t>Median earnings of full-time, year-round workers that completed graduate school</t>
+  </si>
+  <si>
+    <t>25th percentile of earnings for those that completed graduate school</t>
+  </si>
+  <si>
+    <t>75th percentile of earnings for those that completed graduate school</t>
+  </si>
+  <si>
+    <t>Total number of people with major but only undergraduate</t>
+  </si>
+  <si>
+    <t>Number employed but only undergraduate</t>
+  </si>
+  <si>
+    <t>Employed at least 50 weeks, and for at least 35 hours but only undergraduate</t>
+  </si>
+  <si>
+    <t>Number unemployed but only undergraduate</t>
+  </si>
+  <si>
+    <t>Median earnings of full-time, year-round workers but only undergraduate</t>
+  </si>
+  <si>
+    <t>25th percentile of earnings but only undergraduate</t>
+  </si>
+  <si>
+    <t>75th percentile of earnings but only undergraduate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,8 +325,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,13 +644,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C70223C-A419-9C48-8A4D-6A96E48F12A8}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -560,6 +673,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
       <c r="C2" t="s">
         <v>43</v>
       </c>
@@ -571,6 +687,9 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -582,6 +701,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
@@ -593,6 +715,9 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
       <c r="C5" t="s">
         <v>43</v>
       </c>
@@ -604,6 +729,9 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
@@ -615,6 +743,9 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
@@ -626,6 +757,9 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
@@ -637,6 +771,9 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
@@ -648,6 +785,9 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
       <c r="C10" t="s">
         <v>43</v>
       </c>
@@ -659,6 +799,9 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" t="s">
         <v>43</v>
       </c>
@@ -670,6 +813,9 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
@@ -681,6 +827,9 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
@@ -692,6 +841,9 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
       <c r="C14" t="s">
         <v>43</v>
       </c>
@@ -703,6 +855,9 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
@@ -714,6 +869,9 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" t="s">
         <v>43</v>
       </c>
@@ -725,6 +883,9 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
       <c r="C17" t="s">
         <v>43</v>
       </c>
@@ -736,6 +897,9 @@
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
       <c r="C18" t="s">
         <v>43</v>
       </c>
@@ -747,6 +911,9 @@
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
@@ -758,6 +925,9 @@
       <c r="A20" t="s">
         <v>20</v>
       </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
@@ -769,6 +939,9 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
       <c r="C21" t="s">
         <v>43</v>
       </c>
@@ -780,6 +953,9 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
       <c r="C22" t="s">
         <v>43</v>
       </c>
@@ -791,6 +967,9 @@
       <c r="A23" t="s">
         <v>23</v>
       </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
@@ -802,6 +981,9 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
       <c r="C24" t="s">
         <v>43</v>
       </c>
@@ -813,6 +995,9 @@
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
       <c r="C25" t="s">
         <v>43</v>
       </c>
@@ -824,6 +1009,9 @@
       <c r="A26" t="s">
         <v>26</v>
       </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
       <c r="C26" t="s">
         <v>43</v>
       </c>
@@ -835,6 +1023,9 @@
       <c r="A27" t="s">
         <v>27</v>
       </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
       <c r="C27" t="s">
         <v>43</v>
       </c>
@@ -846,6 +1037,9 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
       <c r="C28" t="s">
         <v>43</v>
       </c>
@@ -857,6 +1051,9 @@
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
       <c r="C29" t="s">
         <v>43</v>
       </c>
@@ -868,6 +1065,9 @@
       <c r="A30" t="s">
         <v>30</v>
       </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
@@ -879,6 +1079,9 @@
       <c r="A31" t="s">
         <v>31</v>
       </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
@@ -890,6 +1093,9 @@
       <c r="A32" t="s">
         <v>32</v>
       </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
       <c r="C32" t="s">
         <v>43</v>
       </c>
@@ -901,6 +1107,9 @@
       <c r="A33" t="s">
         <v>33</v>
       </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
@@ -912,6 +1121,9 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
       <c r="C34" t="s">
         <v>43</v>
       </c>
@@ -923,6 +1135,9 @@
       <c r="A35" t="s">
         <v>35</v>
       </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
       <c r="C35" t="s">
         <v>43</v>
       </c>
@@ -934,6 +1149,9 @@
       <c r="A36" t="s">
         <v>36</v>
       </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
       <c r="C36" t="s">
         <v>43</v>
       </c>
@@ -945,6 +1163,9 @@
       <c r="A37" t="s">
         <v>37</v>
       </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
       <c r="C37" t="s">
         <v>43</v>
       </c>
@@ -956,6 +1177,9 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
       <c r="C38" t="s">
         <v>43</v>
       </c>
@@ -966,6 +1190,9 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
       </c>
       <c r="C39" t="s">
         <v>43</v>

--- a/dasc2103project_DataDictionary.xlsx
+++ b/dasc2103project_DataDictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobhaarala/Dropbox/My Mac (Jacob’s MacBook Air)/Downloads/Data-Structures&amp;Algorithms/dasc2103project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DE0B3C-7A03-474E-9C41-0F7BEC881514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A8942-1962-634E-9177-3FA1EBBDC5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15320" windowHeight="16460" xr2:uid="{94DDB44B-70C4-0A46-A739-5D6D65E68943}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13240" windowHeight="16460" xr2:uid="{94DDB44B-70C4-0A46-A739-5D6D65E68943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>Header</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>75th percentile of earnings but only undergraduate</t>
+  </si>
+  <si>
+    <t>The increase in average wages that graduate students can expect having earned a degree from a graduate program</t>
+  </si>
+  <si>
+    <t>Graduate students as a share of the total</t>
   </si>
 </sst>
 </file>
@@ -644,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C70223C-A419-9C48-8A4D-6A96E48F12A8}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,6 +1211,9 @@
       <c r="A40" t="s">
         <v>40</v>
       </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
       <c r="C40" t="s">
         <v>43</v>
       </c>
@@ -1215,6 +1224,9 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
